--- a/biology/Botanique/Carpocapse_des_châtaignes/Carpocapse_des_châtaignes.xlsx
+++ b/biology/Botanique/Carpocapse_des_châtaignes/Carpocapse_des_châtaignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpocapse_des_ch%C3%A2taignes</t>
+          <t>Carpocapse_des_châtaignes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cydia splendana
 Le carpocapse des châtaignes (Cydia splendana) est une espèce d'insectes lépidoptères (papillons) de la famille des Tortricidae, originaire d'Europe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpocapse_des_ch%C3%A2taignes</t>
+          <t>Carpocapse_des_châtaignes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'individu adulte mesure 13 à 18 mm d'envergure. Ailes antérieures trapézoïdales, gris cendré, traversées de fines lignes claires ; à l'angle postérieur, une tache gris argenté bordée de brun et renfermant 4 petits traits noirs.
 La larve mesure 12 à 16 mm, assez épaisse, blanche ou rosée avec le premier segment thoracique brun foncé ; pattes abdominales avec 16 à 18 crochets disposés sur une circonférence ; pattes anales avec 8 à 9 crochets groupés à l'avant ; pas de peigne anal.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpocapse_des_ch%C3%A2taignes</t>
+          <t>Carpocapse_des_châtaignes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce produit une génération par an. À la fin de son développement (de la mi-septembre à la mi-novembre avec un maximum vers le 10 octobre), la chenille abandonne le fruit en faisant un trou de 2 à 3 mm de diamètre et se confectionne dans la terre une coque soyeuse dans laquelle elle hiverne. Dans le Sud de la France, elle se nymphose en juillet et les papillons apparaissent durant la 2e quinzaine du mois d'août.
 Plantes-hôtes : le châtaignier, les chênes (Quercus), les noyers, plus rarement le noisetier.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpocapse_des_ch%C3%A2taignes</t>
+          <t>Carpocapse_des_châtaignes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un ravageur du Châtaignier, la présence de fruits attaqués déprécie la qualité de la production et nécessite des opérations de tri onéreuses.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpocapse_des_ch%C3%A2taignes</t>
+          <t>Carpocapse_des_châtaignes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Piège à phéromones : ce piège permet d’attirer les papillons mâles. Pièges situés entre 3 et 8 m de hauteur dans la couronne fruitière.
 Piège alimentaire : le piège est constitué d’une bouteille en plastique de 1,5 l, remplie au quart d’une solution aqueuse de miel (10 %). La bouteille est percée de petits trous dans sa partie supérieure pour le passage des papillons. Le liquide est renouvelé quand il est trop évaporé.
